--- a/Manpower_Calculation_Starbucks_Team.xlsx
+++ b/Manpower_Calculation_Starbucks_Team.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aconnolly\Documents\Bootcamp\Is_Starbucks_your_cup_of_coffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4536727-1586-47E4-B1C9-CABD47494E6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278D0B97-FA18-4572-97A0-87821397EDAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCD9D9D5-993F-4FDB-B545-D115C471AC5E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Time in minutes</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Jeff</t>
   </si>
   <si>
-    <t>2.  Review the raw datas</t>
-  </si>
-  <si>
     <t>3. Delegation of responsibilities: divide the 3 datasets</t>
   </si>
   <si>
@@ -148,17 +145,30 @@
   </si>
   <si>
     <t>3. Manpower Tracker</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>2.  Review the raw datasets</t>
+  </si>
+  <si>
+    <t>Projected Time (mins)</t>
+  </si>
+  <si>
+    <t>Projected Time (hrs)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,14 +216,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="22"/>
       <color theme="9" tint="-0.499984740745262"/>
-      <name val="Mongolian Baiti"/>
-      <family val="4"/>
+      <name val="Algerian"/>
+      <family val="5"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,8 +283,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -325,43 +371,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -524,6 +533,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -531,7 +629,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,53 +652,64 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="2" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="4" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="4" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="5" fillId="4" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="5" fillId="4" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="5" fillId="4" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="7" fillId="4" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -923,65 +1032,80 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="102.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.453125" style="9" customWidth="1"/>
     <col min="4" max="7" width="8.90625" style="9" customWidth="1"/>
     <col min="8" max="9" width="16.90625" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="1"/>
+    <col min="10" max="10" width="20.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.26953125" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7265625" style="24" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:12" ht="32.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="32"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="19" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
+      <c r="J2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -989,727 +1113,961 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="34">
         <v>36</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="34">
         <v>36</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="34">
         <v>36</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26">
+      <c r="E5" s="34"/>
+      <c r="F5" s="34">
         <v>36</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="34">
         <v>36</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="35">
         <f>SUM(B5:G5)</f>
         <v>180</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="27">
         <f>H5/60</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
+      <c r="J5" s="27">
+        <v>120</v>
+      </c>
+      <c r="K5" s="28">
+        <f>J5/60</f>
+        <v>2</v>
+      </c>
+      <c r="L5" s="29">
+        <f>K5-I5</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34">
         <v>20</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35">
         <f>SUM(B6:G6)</f>
         <v>20</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="30">
         <f>H6/60</f>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26">
+      <c r="J6" s="30">
         <v>20</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27">
-        <f t="shared" ref="H7" si="0">SUM(B7:G7)</f>
+      <c r="K6" s="28">
+        <f t="shared" ref="K6:K35" si="0">J6/60</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L6" s="29">
+        <f t="shared" ref="L6:L35" si="1">K6-I6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34">
         <v>20</v>
       </c>
-      <c r="I7" s="18">
-        <f t="shared" ref="I7:I36" si="1">H7/60</f>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35">
+        <f t="shared" ref="H7" si="2">SUM(B7:G7)</f>
+        <v>20</v>
+      </c>
+      <c r="I7" s="30">
+        <f t="shared" ref="I7:I35" si="3">H7/60</f>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27">
-        <f t="shared" ref="H8:H36" si="2">SUM(B8:G8)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="J7" s="30">
+        <v>20</v>
+      </c>
+      <c r="K7" s="28">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L7" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="16"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35">
+        <f t="shared" ref="H8:H35" si="4">SUM(B8:G8)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34">
+        <v>15</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="I10" s="27">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="J10" s="27">
+        <v>20</v>
+      </c>
+      <c r="K10" s="28">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L10" s="29">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26">
+      <c r="B11" s="34">
+        <v>5</v>
+      </c>
+      <c r="C11" s="34">
+        <v>5</v>
+      </c>
+      <c r="D11" s="34">
+        <v>5</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34">
+        <v>5</v>
+      </c>
+      <c r="G11" s="34">
+        <v>5</v>
+      </c>
+      <c r="H11" s="35">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="I11" s="27">
+        <f t="shared" si="3"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J11" s="27">
         <v>15</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27">
-        <f t="shared" si="2"/>
+      <c r="K11" s="28">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="L11" s="29">
+        <f t="shared" si="1"/>
+        <v>-0.16666666666666669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="34">
+        <v>10</v>
+      </c>
+      <c r="C12" s="34">
+        <v>10</v>
+      </c>
+      <c r="D12" s="34">
+        <v>10</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34">
+        <v>10</v>
+      </c>
+      <c r="G12" s="34">
+        <v>10</v>
+      </c>
+      <c r="H12" s="35">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="I12" s="27">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J12" s="27">
         <v>15</v>
       </c>
-      <c r="I10" s="28">
-        <f t="shared" si="1"/>
+      <c r="K12" s="28">
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="26">
+      <c r="L12" s="29">
+        <f t="shared" si="1"/>
+        <v>-0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="15"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="27"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34">
+        <v>20</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="35">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="I15" s="27">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J15" s="27">
+        <v>40</v>
+      </c>
+      <c r="K15" s="28">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L15" s="29">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34">
         <v>5</v>
       </c>
-      <c r="C11" s="26">
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="D11" s="26">
-        <v>5</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26">
-        <v>5</v>
-      </c>
-      <c r="G11" s="26">
-        <v>5</v>
-      </c>
-      <c r="H11" s="27">
-        <f t="shared" si="2"/>
+      <c r="I16" s="27">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J16" s="27">
+        <v>20</v>
+      </c>
+      <c r="K16" s="28">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L16" s="29">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34">
+        <v>120</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="35">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="I17" s="27">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J17" s="27">
+        <v>160</v>
+      </c>
+      <c r="K17" s="28">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="L17" s="29">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="17"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="27"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34">
+        <v>250</v>
+      </c>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="35">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="I20" s="27">
+        <f t="shared" si="3"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="J20" s="27">
+        <f>60*6</f>
+        <v>360</v>
+      </c>
+      <c r="K20" s="28">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L20" s="29">
+        <f t="shared" si="1"/>
+        <v>1.833333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="27">
+        <v>120</v>
+      </c>
+      <c r="K21" s="28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L21" s="29">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34">
+        <v>45</v>
+      </c>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="35">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="I22" s="27">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="J22" s="27">
+        <v>60</v>
+      </c>
+      <c r="K22" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="29">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="15"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="27"/>
+      <c r="K23" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="27"/>
+      <c r="K25" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34">
+        <v>30</v>
+      </c>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="35">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="I26" s="27">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="J26" s="27">
+        <v>120</v>
+      </c>
+      <c r="K26" s="28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L26" s="29">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="17"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="27"/>
+      <c r="K27" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="27">
+        <v>45</v>
+      </c>
+      <c r="K29" s="28">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="L29" s="29">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="27">
         <v>25</v>
       </c>
-      <c r="I11" s="28">
-        <f t="shared" si="1"/>
+      <c r="K30" s="28">
+        <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="26">
-        <v>10</v>
-      </c>
-      <c r="C12" s="26">
-        <v>10</v>
-      </c>
-      <c r="D12" s="26">
-        <v>10</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26">
-        <v>10</v>
-      </c>
-      <c r="G12" s="26">
-        <v>10</v>
-      </c>
-      <c r="H12" s="27">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="I12" s="28">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="17">
-        <v>5</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26">
+      <c r="L30" s="29">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="15"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="27"/>
+      <c r="K31" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="27">
+        <v>75</v>
+      </c>
+      <c r="K33" s="28">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="L33" s="29">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="27">
+        <v>75</v>
+      </c>
+      <c r="K34" s="28">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="L34" s="29">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="17"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="27"/>
+      <c r="K35" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="I16" s="28">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26">
-        <v>5</v>
-      </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="I17" s="28">
-        <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26">
-        <v>120</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27">
-        <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="I18" s="28">
-        <f t="shared" si="1"/>
+      <c r="B36" s="38">
+        <f>SUM(B5:B34)</f>
+        <v>51</v>
+      </c>
+      <c r="C36" s="38">
+        <f>SUM(C5:C34)</f>
+        <v>576</v>
+      </c>
+      <c r="D36" s="38">
+        <f>SUM(D5:D34)</f>
+        <v>51</v>
+      </c>
+      <c r="E36" s="38">
+        <f>SUM(E5:E34)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="38">
+        <f>SUM(F5:F34)</f>
+        <v>51</v>
+      </c>
+      <c r="G36" s="39">
+        <f>SUM(G5:G34)</f>
+        <v>51</v>
+      </c>
+      <c r="H36" s="40">
+        <f>SUM(H5:H35)</f>
+        <v>780</v>
+      </c>
+      <c r="I36" s="41">
+        <f>SUM(I5:I35)</f>
+        <v>13</v>
+      </c>
+      <c r="J36" s="42">
+        <f>SUM(J4:J35)</f>
+        <v>1310</v>
+      </c>
+      <c r="K36" s="43">
+        <f>SUM(K4:K35)</f>
+        <v>21.833333333333332</v>
+      </c>
+      <c r="L36" s="43">
+        <f>SUM(L4:L35)</f>
+        <v>8.8333333333333321</v>
+      </c>
+      <c r="M36" s="1">
+        <f>SUM(B36:G36)</f>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="20"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26">
-        <v>250</v>
-      </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="27">
-        <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="I21" s="28">
-        <f t="shared" si="1"/>
-        <v>4.166666666666667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26">
-        <v>45</v>
-      </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="I23" s="28">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="17"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="20"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="17"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="20"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="22">
-        <f>SUM(B5:B35)</f>
-        <v>51</v>
-      </c>
-      <c r="C37" s="22">
-        <f t="shared" ref="C37:G37" si="3">SUM(C5:C35)</f>
-        <v>546</v>
-      </c>
-      <c r="D37" s="22">
-        <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="E37" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="22">
-        <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="G37" s="22">
-        <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="H37" s="24">
-        <f>SUM(H5:H36)</f>
-        <v>750</v>
-      </c>
-      <c r="I37" s="25">
-        <f>SUM(I5:I36)</f>
-        <v>12.5</v>
-      </c>
-      <c r="K37" s="1">
-        <f>SUM(B37:G37)</f>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="11" t="s">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" s="10" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A40" r:id="rId1" xr:uid="{6D1E80B6-96FC-4159-BDAB-27341C8E65E2}"/>
+    <hyperlink ref="A39" r:id="rId1" xr:uid="{6D1E80B6-96FC-4159-BDAB-27341C8E65E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>

--- a/Manpower_Calculation_Starbucks_Team.xlsx
+++ b/Manpower_Calculation_Starbucks_Team.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aconnolly\Documents\Bootcamp\Is_Starbucks_your_cup_of_coffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278D0B97-FA18-4572-97A0-87821397EDAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A18744-C1CB-45E7-A841-518F566AE602}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCD9D9D5-993F-4FDB-B545-D115C471AC5E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Time in minutes</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Projected Time (hrs)</t>
+  </si>
+  <si>
+    <t>4. Readme file</t>
   </si>
 </sst>
 </file>
@@ -168,7 +171,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,8 +255,23 @@
       <name val="Algerian"/>
       <family val="5"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,6 +307,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -629,7 +653,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -697,8 +721,6 @@
     <xf numFmtId="164" fontId="8" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -712,6 +734,11 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -1032,10 +1059,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1051,20 +1078,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="32.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="20" t="s">
@@ -1123,7 +1150,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
       <c r="F4" s="33"/>
@@ -1141,7 +1168,7 @@
       <c r="B5" s="34">
         <v>36</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="47">
         <v>36</v>
       </c>
       <c r="D5" s="34">
@@ -1154,7 +1181,7 @@
       <c r="G5" s="34">
         <v>36</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="44">
         <f>SUM(B5:G5)</f>
         <v>180</v>
       </c>
@@ -1179,14 +1206,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="34">
+      <c r="C6" s="47">
         <v>20</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
-      <c r="H6" s="35">
+      <c r="H6" s="44">
         <f>SUM(B6:G6)</f>
         <v>20</v>
       </c>
@@ -1211,14 +1238,14 @@
         <v>36</v>
       </c>
       <c r="B7" s="34"/>
-      <c r="C7" s="34">
+      <c r="C7" s="47">
         <v>20</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
-      <c r="H7" s="35">
+      <c r="H7" s="44">
         <f t="shared" ref="H7" si="2">SUM(B7:G7)</f>
         <v>20</v>
       </c>
@@ -1239,26 +1266,35 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
+      <c r="A8" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
+      <c r="C8" s="47">
+        <v>40</v>
+      </c>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
-      <c r="H8" s="35">
+      <c r="H8" s="44">
         <f t="shared" ref="H8:H35" si="4">SUM(B8:G8)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I8" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="28"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J8" s="27">
+        <v>60</v>
+      </c>
+      <c r="K8" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="L8" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -1266,7 +1302,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
@@ -1282,14 +1318,14 @@
         <v>38</v>
       </c>
       <c r="B10" s="34"/>
-      <c r="C10" s="34">
+      <c r="C10" s="47">
         <v>15</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
-      <c r="H10" s="35">
+      <c r="H10" s="44">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
@@ -1316,7 +1352,7 @@
       <c r="B11" s="34">
         <v>5</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="47">
         <v>5</v>
       </c>
       <c r="D11" s="34">
@@ -1329,7 +1365,7 @@
       <c r="G11" s="34">
         <v>5</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="44">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
@@ -1356,7 +1392,7 @@
       <c r="B12" s="34">
         <v>10</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="47">
         <v>10</v>
       </c>
       <c r="D12" s="34">
@@ -1369,7 +1405,7 @@
       <c r="G12" s="34">
         <v>10</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="44">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
@@ -1392,12 +1428,12 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
       <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
-      <c r="H13" s="35">
+      <c r="H13" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1417,7 +1453,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
@@ -1433,14 +1469,14 @@
         <v>24</v>
       </c>
       <c r="B15" s="34"/>
-      <c r="C15" s="34">
+      <c r="C15" s="47">
         <v>20</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
-      <c r="H15" s="35">
+      <c r="H15" s="44">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
@@ -1465,14 +1501,14 @@
         <v>25</v>
       </c>
       <c r="B16" s="34"/>
-      <c r="C16" s="34">
+      <c r="C16" s="47">
         <v>5</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
-      <c r="H16" s="35">
+      <c r="H16" s="44">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -1497,14 +1533,14 @@
         <v>26</v>
       </c>
       <c r="B17" s="34"/>
-      <c r="C17" s="34">
+      <c r="C17" s="47">
         <v>120</v>
       </c>
       <c r="D17" s="34"/>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="35">
+      <c r="H17" s="44">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
@@ -1527,12 +1563,12 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
       <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
-      <c r="H18" s="35">
+      <c r="H18" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1552,7 +1588,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
@@ -1568,14 +1604,14 @@
         <v>27</v>
       </c>
       <c r="B20" s="34"/>
-      <c r="C20" s="34">
+      <c r="C20" s="47">
         <v>250</v>
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
-      <c r="H20" s="35">
+      <c r="H20" s="44">
         <f t="shared" si="4"/>
         <v>250</v>
       </c>
@@ -1601,12 +1637,12 @@
         <v>28</v>
       </c>
       <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
-      <c r="H21" s="35">
+      <c r="H21" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1631,14 +1667,14 @@
         <v>29</v>
       </c>
       <c r="B22" s="34"/>
-      <c r="C22" s="34">
+      <c r="C22" s="47">
         <v>45</v>
       </c>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
-      <c r="H22" s="35">
+      <c r="H22" s="44">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
@@ -1661,12 +1697,12 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
       <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="34"/>
       <c r="E23" s="34"/>
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
-      <c r="H23" s="35">
+      <c r="H23" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1689,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
+      <c r="C24" s="46"/>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
@@ -1705,12 +1741,12 @@
         <v>30</v>
       </c>
       <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
       <c r="G25" s="34"/>
-      <c r="H25" s="35">
+      <c r="H25" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1733,14 +1769,14 @@
         <v>31</v>
       </c>
       <c r="B26" s="34"/>
-      <c r="C26" s="34">
+      <c r="C26" s="47">
         <v>30</v>
       </c>
       <c r="D26" s="34"/>
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
-      <c r="H26" s="35">
+      <c r="H26" s="44">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
@@ -1763,12 +1799,12 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="17"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="34"/>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
-      <c r="H27" s="35">
+      <c r="H27" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1791,7 +1827,7 @@
         <v>18</v>
       </c>
       <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
+      <c r="C28" s="46"/>
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
@@ -1812,7 +1848,7 @@
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
-      <c r="H29" s="35">
+      <c r="H29" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1842,7 +1878,7 @@
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
       <c r="G30" s="34"/>
-      <c r="H30" s="35">
+      <c r="H30" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1870,7 +1906,7 @@
       <c r="E31" s="34"/>
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
-      <c r="H31" s="35">
+      <c r="H31" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1914,7 +1950,7 @@
       <c r="E33" s="34"/>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
-      <c r="H33" s="35">
+      <c r="H33" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1944,7 +1980,7 @@
       <c r="E34" s="34"/>
       <c r="F34" s="34"/>
       <c r="G34" s="34"/>
-      <c r="H34" s="35">
+      <c r="H34" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1972,11 +2008,11 @@
       <c r="E35" s="34"/>
       <c r="F35" s="34"/>
       <c r="G35" s="34"/>
-      <c r="H35" s="36">
+      <c r="H35" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I35" s="37">
+      <c r="I35" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1994,53 +2030,53 @@
       <c r="A36" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="38">
-        <f>SUM(B5:B34)</f>
+      <c r="B36" s="36">
+        <f t="shared" ref="B36:G36" si="5">SUM(B5:B34)</f>
         <v>51</v>
       </c>
-      <c r="C36" s="38">
-        <f>SUM(C5:C34)</f>
-        <v>576</v>
-      </c>
-      <c r="D36" s="38">
-        <f>SUM(D5:D34)</f>
+      <c r="C36" s="36">
+        <f t="shared" si="5"/>
+        <v>616</v>
+      </c>
+      <c r="D36" s="36">
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
-      <c r="E36" s="38">
-        <f>SUM(E5:E34)</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="38">
-        <f>SUM(F5:F34)</f>
+      <c r="E36" s="36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="36">
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
-      <c r="G36" s="39">
-        <f>SUM(G5:G34)</f>
+      <c r="G36" s="37">
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
-      <c r="H36" s="40">
+      <c r="H36" s="38">
         <f>SUM(H5:H35)</f>
-        <v>780</v>
-      </c>
-      <c r="I36" s="41">
+        <v>820</v>
+      </c>
+      <c r="I36" s="39">
         <f>SUM(I5:I35)</f>
-        <v>13</v>
-      </c>
-      <c r="J36" s="42">
+        <v>13.666666666666668</v>
+      </c>
+      <c r="J36" s="40">
         <f>SUM(J4:J35)</f>
-        <v>1310</v>
-      </c>
-      <c r="K36" s="43">
+        <v>1370</v>
+      </c>
+      <c r="K36" s="41">
         <f>SUM(K4:K35)</f>
-        <v>21.833333333333332</v>
-      </c>
-      <c r="L36" s="43">
+        <v>22.833333333333332</v>
+      </c>
+      <c r="L36" s="41">
         <f>SUM(L4:L35)</f>
-        <v>8.8333333333333321</v>
+        <v>9.1666666666666661</v>
       </c>
       <c r="M36" s="1">
         <f>SUM(B36:G36)</f>
-        <v>780</v>
+        <v>820</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.35">
@@ -2060,6 +2096,16 @@
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>3</v>
+      </c>
+      <c r="M39" s="48">
+        <f>4*4</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M40" s="1">
+        <f>M39*60</f>
+        <v>960</v>
       </c>
     </row>
   </sheetData>
